--- a/admin_interface/initData/users.xlsx
+++ b/admin_interface/initData/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perre\eclipse-workspace\Django\les_grandes_oreilles\admin_interface\initData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE265B-A445-426B-9F92-F4FFB910A1E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152AD4D5-659B-49CB-93EA-0D7F6B4C5728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDBA8DEB-44BB-44BA-ABA8-A3259AD206CD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -116,28 +116,28 @@
     <t>PerreautBis</t>
   </si>
   <si>
-    <t>clementine.perreautbis</t>
-  </si>
-  <si>
-    <t>laurie.callo</t>
-  </si>
-  <si>
-    <t>charles.chaplin</t>
-  </si>
-  <si>
-    <t>sabine.gauger</t>
-  </si>
-  <si>
-    <t>dexter.serie</t>
-  </si>
-  <si>
-    <t>chloe.machado</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>perreautbis.clementine</t>
+  </si>
+  <si>
+    <t>callo.laurie</t>
+  </si>
+  <si>
+    <t>chaplin.charles</t>
+  </si>
+  <si>
+    <t>gauger.sabine</t>
+  </si>
+  <si>
+    <t>serie.dexter</t>
+  </si>
+  <si>
+    <t>machado.chloe</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,10 +522,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -553,8 +553,8 @@
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>20</v>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -563,7 +563,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -582,8 +582,8 @@
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>21</v>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -611,8 +611,8 @@
       <c r="A4">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>22</v>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -621,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
@@ -640,8 +640,8 @@
       <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>23</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
@@ -669,8 +669,8 @@
       <c r="A6">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>24</v>
+      <c r="B6" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -679,7 +679,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -698,8 +698,8 @@
       <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>25</v>
+      <c r="B7" t="s">
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -708,7 +708,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>

--- a/admin_interface/initData/users.xlsx
+++ b/admin_interface/initData/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perre\eclipse-workspace\Django\les_grandes_oreilles\admin_interface\initData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152AD4D5-659B-49CB-93EA-0D7F6B4C5728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A557957-0865-4638-B897-F8ABAE350FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDBA8DEB-44BB-44BA-ABA8-A3259AD206CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDBA8DEB-44BB-44BA-ABA8-A3259AD206CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>username</t>
   </si>
@@ -92,24 +92,6 @@
     <t>example@test.fr</t>
   </si>
   <si>
-    <t>25 rue du Paradis 69003 Lyon</t>
-  </si>
-  <si>
-    <t>26 rue du Paradis 69003 Lyon</t>
-  </si>
-  <si>
-    <t>27 rue du Paradis 69003 Lyon</t>
-  </si>
-  <si>
-    <t>28 rue du Paradis 69003 Lyon</t>
-  </si>
-  <si>
-    <t>29 rue du Paradis 69003 Lyon</t>
-  </si>
-  <si>
-    <t>30 rue du Paradis 69003 Lyon</t>
-  </si>
-  <si>
     <t>0203040506</t>
   </si>
   <si>
@@ -138,6 +120,39 @@
   </si>
   <si>
     <t>machado.chloe</t>
+  </si>
+  <si>
+    <t>code_postal</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>69003</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>26 rue du Paradis</t>
+  </si>
+  <si>
+    <t>25 rue du Paradis</t>
+  </si>
+  <si>
+    <t>27 rue du Paradis</t>
+  </si>
+  <si>
+    <t>28 rue du Paradis</t>
+  </si>
+  <si>
+    <t>29 rue du Paradis</t>
+  </si>
+  <si>
+    <t>30 rue du Paradis</t>
+  </si>
+  <si>
+    <t>deuxieme_telephone</t>
   </si>
 </sst>
 </file>
@@ -167,15 +182,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -183,15 +204,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -507,221 +675,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D3CB3E-655E-4A1E-BC78-08861857B5FF}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
     <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" customWidth="1"/>
     <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.26953125" customWidth="1"/>
+    <col min="12" max="12" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="L7" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/admin_interface/initData/users.xlsx
+++ b/admin_interface/initData/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perre\eclipse-workspace\Django\les_grandes_oreilles\admin_interface\initData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A557957-0865-4638-B897-F8ABAE350FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1725F7D-FD23-438E-B2A8-D8F83BBDD20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDBA8DEB-44BB-44BA-ABA8-A3259AD206CD}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDBA8DEB-44BB-44BA-ABA8-A3259AD206CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -104,24 +104,6 @@
     <t>user</t>
   </si>
   <si>
-    <t>perreautbis.clementine</t>
-  </si>
-  <si>
-    <t>callo.laurie</t>
-  </si>
-  <si>
-    <t>chaplin.charles</t>
-  </si>
-  <si>
-    <t>gauger.sabine</t>
-  </si>
-  <si>
-    <t>serie.dexter</t>
-  </si>
-  <si>
-    <t>machado.chloe</t>
-  </si>
-  <si>
     <t>code_postal</t>
   </si>
   <si>
@@ -152,7 +134,13 @@
     <t>30 rue du Paradis</t>
   </si>
   <si>
-    <t>deuxieme_telephone</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Marin</t>
   </si>
 </sst>
 </file>
@@ -182,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +183,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,13 +244,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -274,7 +268,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -283,52 +277,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -344,22 +293,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -675,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D3CB3E-655E-4A1E-BC78-08861857B5FF}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,51 +635,48 @@
     <col min="6" max="6" width="18.36328125" customWidth="1"/>
     <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="25.26953125" customWidth="1"/>
-    <col min="12" max="12" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1" t="str">
+        <f>LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(D2,".",C2)," ","-"),"'",""),"""",""),"/",""),"?",""),"à","a"),"&gt;",""),"&lt;",""),";",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"é", "e"), "'", ""),"""",""))</f>
+        <v>perreautbis.clementine</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -740,8 +684,9 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
+      <c r="E2" s="1" t="str">
+        <f>B2</f>
+        <v>perreautbis.clementine</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -750,23 +695,23 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B9" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(D3,".",C3)," ","-"),"'",""),"""",""),"/",""),"?",""),"à","a"),"&gt;",""),"&lt;",""),";",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"é", "e"), "'", ""),"""",""))</f>
+        <v>callo.laurie</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -774,8 +719,9 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E9" si="1">B3</f>
+        <v>callo.laurie</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -784,23 +730,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chaplin.charles</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -808,8 +754,9 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>chaplin.charles</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -818,23 +765,23 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>machado.chloe</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -842,8 +789,9 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>machado.chloe</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -852,23 +800,23 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>gauger.sabine</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -876,8 +824,9 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>gauger.sabine</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -886,59 +835,132 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>serie.dexter</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>serie.dexter</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>test.test</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test.test</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>marin.louis</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>marin.louis</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="I9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{7A6D6B7D-8518-41C8-BCB0-10F5ED21229D}"/>
     <hyperlink ref="F3:F7" r:id="rId2" display="example@test.fr" xr:uid="{2E687F35-8158-4F12-BAAC-7072EFB69591}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{10923174-1225-4A5C-B9D4-F8F19CD20041}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{287541B0-2344-4E44-8F64-851954DBEA73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/admin_interface/initData/users.xlsx
+++ b/admin_interface/initData/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perre\eclipse-workspace\Django\les_grandes_oreilles\admin_interface\initData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1725F7D-FD23-438E-B2A8-D8F83BBDD20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A658807B-3835-4A2B-A407-64B089693F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDBA8DEB-44BB-44BA-ABA8-A3259AD206CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDBA8DEB-44BB-44BA-ABA8-A3259AD206CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>username</t>
   </si>
@@ -141,6 +141,36 @@
   </si>
   <si>
     <t>Marin</t>
+  </si>
+  <si>
+    <t>Ne pas remplir, champ technique</t>
+  </si>
+  <si>
+    <t>Ne pas remplir, champ qui sera calculé automatiquement</t>
+  </si>
+  <si>
+    <t>Prénom du proprietaire</t>
+  </si>
+  <si>
+    <t>Nom de famille du propriétaire</t>
+  </si>
+  <si>
+    <t>Email du propriétaire</t>
+  </si>
+  <si>
+    <t>Ne pas remplir (ou mettre 0 pour tout le monde)</t>
+  </si>
+  <si>
+    <t>Première partie de l'adresse</t>
+  </si>
+  <si>
+    <t>Code postal de l'adresse</t>
+  </si>
+  <si>
+    <t>Ville de l'adresse</t>
+  </si>
+  <si>
+    <t>Numéro de téléphone</t>
   </si>
 </sst>
 </file>
@@ -185,12 +215,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,12 +318,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -305,8 +361,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -622,17 +686,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D3CB3E-655E-4A1E-BC78-08861857B5FF}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
     <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="25.26953125" customWidth="1"/>
   </cols>
@@ -644,84 +711,84 @@
       <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1" t="str">
-        <f>LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(D2,".",C2)," ","-"),"'",""),"""",""),"/",""),"?",""),"à","a"),"&gt;",""),"&lt;",""),";",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"é", "e"), "'", ""),"""",""))</f>
-        <v>perreautbis.clementine</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>B2</f>
-        <v>perreautbis.clementine</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
+    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B9" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(D3,".",C3)," ","-"),"'",""),"""",""),"/",""),"?",""),"à","a"),"&gt;",""),"&lt;",""),";",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"é", "e"), "'", ""),"""",""))</f>
-        <v>callo.laurie</v>
+        <f>LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(D3,".",C3)," ","-"),"'",""),"""",""),"/",""),"?",""),"à","a"),"&gt;",""),"&lt;",""),";",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"é", "e"), "'", ""),"""",""))</f>
+        <v>perreautbis.clementine</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E9" si="1">B3</f>
-        <v>callo.laurie</v>
+        <f>B3</f>
+        <v>perreautbis.clementine</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -730,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>25</v>
@@ -745,18 +812,18 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>chaplin.charles</v>
+        <f t="shared" ref="B4:B10" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(D4,".",C4)," ","-"),"'",""),"""",""),"/",""),"?",""),"à","a"),"&gt;",""),"&lt;",""),";",""),";",""),":",""),"[",""),"]",""),"}",""),"[",""),"{",""),"|",""),"\",""),"+",""),"=",""),"~",""),"`",""),"!",""),"@",""),"#",""),"$",""),"%",""),"^",""),"&amp;",""),"*",""),"(",""),")",""),"é", "e"), "'", ""),"""",""))</f>
+        <v>callo.laurie</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>chaplin.charles</v>
+        <f t="shared" ref="E4:E10" si="1">B4</f>
+        <v>callo.laurie</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -765,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>25</v>
@@ -781,26 +848,26 @@
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>machado.chloe</v>
+        <v>chaplin.charles</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>machado.chloe</v>
+        <v>chaplin.charles</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>25</v>
@@ -816,26 +883,26 @@
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>gauger.sabine</v>
+        <v>machado.chloe</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>gauger.sabine</v>
+        <v>machado.chloe</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>25</v>
@@ -847,73 +914,73 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>serie.dexter</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>gauger.sabine</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>serie.dexter</v>
-      </c>
-      <c r="F7" s="9" t="s">
+        <v>gauger.sabine</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>test.test</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>serie.dexter</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>test.test</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>serie.dexter</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -921,17 +988,17 @@
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>marin.louis</v>
+        <v>test.test</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>marin.louis</v>
+        <v>test.test</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -940,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>25</v>
@@ -949,16 +1016,51 @@
         <v>26</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>marin.louis</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>marin.louis</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7A6D6B7D-8518-41C8-BCB0-10F5ED21229D}"/>
-    <hyperlink ref="F3:F7" r:id="rId2" display="example@test.fr" xr:uid="{2E687F35-8158-4F12-BAAC-7072EFB69591}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{10923174-1225-4A5C-B9D4-F8F19CD20041}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{287541B0-2344-4E44-8F64-851954DBEA73}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{7A6D6B7D-8518-41C8-BCB0-10F5ED21229D}"/>
+    <hyperlink ref="F4:F8" r:id="rId2" display="example@test.fr" xr:uid="{2E687F35-8158-4F12-BAAC-7072EFB69591}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{10923174-1225-4A5C-B9D4-F8F19CD20041}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{287541B0-2344-4E44-8F64-851954DBEA73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
